--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeadk.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeadk.xlsx
@@ -3867,7 +3867,7 @@
   <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeadk.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeadk.xlsx
@@ -3867,7 +3867,7 @@
   <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeadk.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeadk.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8D3C2B-7822-4FE3-939D-BFE7EEFC9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF8E122-D00F-467A-B8A0-671BD843127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="283">
   <si>
     <t>UserName</t>
   </si>
@@ -892,6 +892,18 @@
   </si>
   <si>
     <t xml:space="preserve">STONEWASH BLACK </t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>abogi@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>Abcd@123</t>
+  </si>
+  <si>
+    <t>Sjælland</t>
   </si>
 </sst>
 </file>
@@ -3299,8 +3311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEDE721-2994-4A91-8C89-FADAE76105D8}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3414,16 +3426,16 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3443,7 +3455,7 @@
         <v>187</v>
       </c>
       <c r="O2" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>188</v>
@@ -3479,8 +3491,8 @@
       <c r="A4" t="s">
         <v>99</v>
       </c>
-      <c r="W4" t="s">
-        <v>194</v>
+      <c r="W4" s="5" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -3843,19 +3855,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{C94C20D5-4494-4663-8D15-E3F04F8BA838}"/>
-    <hyperlink ref="D2" r:id="rId2" display="Testers@278" xr:uid="{0F1A9542-CB17-4A46-B151-3CB4195FE686}"/>
-    <hyperlink ref="E2" r:id="rId3" display="Testers@278" xr:uid="{3D6B96F7-7492-4831-BA08-1EC319F3C995}"/>
-    <hyperlink ref="C2" r:id="rId4" display="testersemail.278@gmail.com" xr:uid="{FF5CC51C-5AD9-4693-981E-E7B0E9E657C5}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{D61594FB-34B8-48FF-8601-E5E62BE99A50}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{5D1A5D25-CA74-4312-B274-A09F60758C65}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{05504D73-D67C-47D1-B503-0C5ECD72787A}"/>
-    <hyperlink ref="C13" r:id="rId8" display="testersemail.278@gmail.com" xr:uid="{2FD31558-C54F-4C20-BA79-E4495F4F8A25}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{642BE6BD-6769-4684-BDF3-6EE93DC03E40}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{B56CD3AB-3EF7-427B-AEE9-EFCCB446AE2B}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{13574855-564B-42A8-BC07-0BB732D28542}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{4F884725-7BD6-4040-9EB4-E29F2ED09129}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{50B14846-390B-41D6-AC9B-F1AB298F8D8C}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0F1A9542-CB17-4A46-B151-3CB4195FE686}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{3D6B96F7-7492-4831-BA08-1EC319F3C995}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{FF5CC51C-5AD9-4693-981E-E7B0E9E657C5}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{D61594FB-34B8-48FF-8601-E5E62BE99A50}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{5D1A5D25-CA74-4312-B274-A09F60758C65}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{05504D73-D67C-47D1-B503-0C5ECD72787A}"/>
+    <hyperlink ref="C13" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{2FD31558-C54F-4C20-BA79-E4495F4F8A25}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{642BE6BD-6769-4684-BDF3-6EE93DC03E40}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{B56CD3AB-3EF7-427B-AEE9-EFCCB446AE2B}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{13574855-564B-42A8-BC07-0BB732D28542}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{4F884725-7BD6-4040-9EB4-E29F2ED09129}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{50B14846-390B-41D6-AC9B-F1AB298F8D8C}"/>
+    <hyperlink ref="B2" r:id="rId13" xr:uid="{C94C20D5-4494-4663-8D15-E3F04F8BA838}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -3866,7 +3878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B948743-CA29-4DBC-9182-9AC6052C14C8}">
   <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeadk.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeadk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF8E122-D00F-467A-B8A0-671BD843127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D3333-D324-422A-AACD-3500B25F6961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,13 +897,13 @@
     <t>Delivery</t>
   </si>
   <si>
-    <t>abogi@helenoftroy.com</t>
-  </si>
-  <si>
     <t>Abcd@123</t>
   </si>
   <si>
     <t>Sjælland</t>
+  </si>
+  <si>
+    <t>abogi+1@helenoftroy.com</t>
   </si>
 </sst>
 </file>
@@ -3312,7 +3312,7 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,16 +3426,16 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3455,7 +3455,7 @@
         <v>187</v>
       </c>
       <c r="O2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>188</v>

--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeadk.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeadk.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D3333-D324-422A-AACD-3500B25F6961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C6EB2-1A0B-4139-B5CF-52CFDF85D976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="13110" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="289">
   <si>
     <t>UserName</t>
   </si>
@@ -904,6 +904,24 @@
   </si>
   <si>
     <t>abogi+1@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>Fliters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKK </t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Raincovers</t>
   </si>
 </sst>
 </file>
@@ -2714,9 +2732,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EA8A0A-8AB3-4C75-B640-7EA39F21ED70}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -2729,12 +2747,12 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2772,33 +2790,42 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2835,78 +2862,103 @@
       <c r="L2" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>276</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>278</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>272</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="5"/>
+      <c r="S4" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>208</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" t="s">
         <v>276</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>278</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>210</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>220</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V8" t="s">
         <v>37</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>288</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="P9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3311,7 +3363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEDE721-2994-4A91-8C89-FADAE76105D8}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
